--- a/2024软件工程数据统计/课堂考核及成绩记载表10.13.xlsx
+++ b/2024软件工程数据统计/课堂考核及成绩记载表10.13.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\2024软件工程数据统计\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Git-2024软工数据统计\2024软件工程数据统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9308A3-C5FE-4C17-B710-62159274E365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224638A8-D393-4BA1-82F7-DA0B9BB6B8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,26 +21,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">作业情况!$F$1:$F$47</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="178">
   <si>
     <t>浙大城市学院课堂考核及成绩记载表</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -733,6 +724,23 @@
   </si>
   <si>
     <t>第二次项目计划汇报（总分80）10.8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>小组作业10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>13</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -879,7 +887,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -924,6 +932,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1246,14 +1257,14 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="13.46484375" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1276,7 +1287,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -1313,7 +1324,7 @@
       </c>
       <c r="S2" s="8"/>
     </row>
-    <row r="3" spans="1:19" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -1350,7 +1361,7 @@
       </c>
       <c r="S3" s="8"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1409,7 +1420,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1440,7 +1451,7 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
     </row>
-    <row r="6" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1471,7 +1482,7 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1502,7 +1513,7 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1533,7 +1544,7 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -1564,7 +1575,7 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -1595,7 +1606,7 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -1626,7 +1637,7 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
     </row>
-    <row r="12" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -1659,7 +1670,7 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -1690,7 +1701,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
     </row>
-    <row r="14" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -1723,7 +1734,7 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
     </row>
-    <row r="15" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -1754,7 +1765,7 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -1787,7 +1798,7 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
     </row>
-    <row r="17" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -1818,7 +1829,7 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
     </row>
-    <row r="18" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -1851,7 +1862,7 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -1882,7 +1893,7 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
     </row>
-    <row r="20" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -1913,7 +1924,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -1944,7 +1955,7 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -1977,7 +1988,7 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
     </row>
-    <row r="23" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -2008,7 +2019,7 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
     </row>
-    <row r="24" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -2041,7 +2052,7 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
     </row>
-    <row r="25" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -2072,7 +2083,7 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
     </row>
-    <row r="26" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -2103,7 +2114,7 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
     </row>
-    <row r="27" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -2134,7 +2145,7 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
     </row>
-    <row r="28" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>24</v>
       </c>
@@ -2165,7 +2176,7 @@
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
     </row>
-    <row r="29" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>25</v>
       </c>
@@ -2196,7 +2207,7 @@
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
     </row>
-    <row r="30" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>26</v>
       </c>
@@ -2227,7 +2238,7 @@
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
     </row>
-    <row r="31" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>27</v>
       </c>
@@ -2258,7 +2269,7 @@
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
     </row>
-    <row r="32" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>28</v>
       </c>
@@ -2289,7 +2300,7 @@
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
     </row>
-    <row r="33" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>29</v>
       </c>
@@ -2322,7 +2333,7 @@
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
     </row>
-    <row r="34" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>30</v>
       </c>
@@ -2355,7 +2366,7 @@
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
     </row>
-    <row r="35" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>31</v>
       </c>
@@ -2386,7 +2397,7 @@
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
     </row>
-    <row r="36" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>32</v>
       </c>
@@ -2417,7 +2428,7 @@
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
     </row>
-    <row r="37" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>33</v>
       </c>
@@ -2448,7 +2459,7 @@
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
     </row>
-    <row r="38" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>34</v>
       </c>
@@ -2479,7 +2490,7 @@
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
     </row>
-    <row r="39" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>35</v>
       </c>
@@ -2514,7 +2525,7 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
     </row>
-    <row r="40" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>36</v>
       </c>
@@ -2547,7 +2558,7 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
     </row>
-    <row r="41" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>37</v>
       </c>
@@ -2580,7 +2591,7 @@
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
     </row>
-    <row r="42" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>38</v>
       </c>
@@ -2613,7 +2624,7 @@
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
     </row>
-    <row r="43" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>39</v>
       </c>
@@ -2644,7 +2655,7 @@
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
     </row>
-    <row r="44" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>40</v>
       </c>
@@ -2675,7 +2686,7 @@
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
     </row>
-    <row r="45" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>41</v>
       </c>
@@ -2708,7 +2719,7 @@
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>42</v>
       </c>
@@ -2741,7 +2752,7 @@
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>43</v>
       </c>
@@ -2772,7 +2783,7 @@
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>44</v>
       </c>
@@ -2801,7 +2812,7 @@
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>45</v>
       </c>
@@ -2858,12 +2869,12 @@
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="13.3984375" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>142</v>
       </c>
@@ -2890,7 +2901,7 @@
       <c r="V1" s="14"/>
       <c r="W1" s="14"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -2961,7 +2972,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -2994,7 +3005,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -3027,7 +3038,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -3060,7 +3071,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -3093,7 +3104,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -3126,7 +3137,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -3159,7 +3170,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -3192,7 +3203,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -3227,7 +3238,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -3260,7 +3271,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -3295,7 +3306,7 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -3328,7 +3339,7 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -3363,7 +3374,7 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -3396,7 +3407,7 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -3431,7 +3442,7 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -3464,7 +3475,7 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -3497,7 +3508,7 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -3530,7 +3541,7 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -3565,7 +3576,7 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -3598,7 +3609,7 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -3633,7 +3644,7 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -3666,7 +3677,7 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -3699,7 +3710,7 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -3732,7 +3743,7 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -3765,7 +3776,7 @@
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -3798,7 +3809,7 @@
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -3831,7 +3842,7 @@
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -3864,7 +3875,7 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -3897,7 +3908,7 @@
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -3932,7 +3943,7 @@
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -3967,7 +3978,7 @@
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -4002,7 +4013,7 @@
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -4035,7 +4046,7 @@
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -4068,7 +4079,7 @@
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -4101,7 +4112,7 @@
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -4136,7 +4147,7 @@
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -4171,7 +4182,7 @@
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -4206,7 +4217,7 @@
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -4241,7 +4252,7 @@
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -4274,7 +4285,7 @@
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -4307,7 +4318,7 @@
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -4342,7 +4353,7 @@
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -4377,7 +4388,7 @@
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -4410,7 +4421,7 @@
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -4441,7 +4452,7 @@
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -4484,24 +4495,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F85BF50-88E6-40A2-A1FB-0D6A472C90B1}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" customWidth="1"/>
-    <col min="7" max="7" width="9.59765625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.86328125" customWidth="1"/>
-    <col min="9" max="9" width="12.59765625" customWidth="1"/>
-    <col min="10" max="10" width="12.3984375" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.875" customWidth="1"/>
+    <col min="9" max="9" width="12.625" customWidth="1"/>
+    <col min="10" max="10" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>143</v>
       </c>
@@ -4513,7 +4523,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -4544,8 +4554,11 @@
       <c r="J2" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="K2" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -4574,8 +4587,11 @@
       <c r="J3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="K3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -4596,8 +4612,11 @@
       <c r="H4" s="3"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="K4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -4626,8 +4645,11 @@
       <c r="J5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="K5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -4656,8 +4678,11 @@
       <c r="J6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="K6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -4686,8 +4711,11 @@
       <c r="J7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="K7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -4716,8 +4744,11 @@
       <c r="J8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="K8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -4746,8 +4777,11 @@
       <c r="J9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -4776,8 +4810,11 @@
       <c r="J10" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="K10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -4806,8 +4843,11 @@
       <c r="J11" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -4838,8 +4878,11 @@
       <c r="J12" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="K12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -4864,8 +4907,11 @@
       <c r="J13" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -4894,8 +4940,11 @@
       <c r="J14" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="K14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -4922,8 +4971,11 @@
       <c r="J15" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -4948,8 +5000,11 @@
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="K16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -4978,8 +5033,11 @@
       <c r="J17" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="K17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -5006,8 +5064,11 @@
       <c r="J18" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="K18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -5032,8 +5093,11 @@
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -5060,8 +5124,11 @@
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="K20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -5090,8 +5157,11 @@
       <c r="J21" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -5120,8 +5190,11 @@
       <c r="J22" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="K22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -5148,8 +5221,11 @@
       <c r="J23" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="K23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -5176,8 +5252,11 @@
       <c r="J24" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="K24" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -5202,8 +5281,11 @@
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="K25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -5232,8 +5314,11 @@
       <c r="J26" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="K26" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -5260,8 +5345,11 @@
       <c r="J27" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="K27" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -5288,8 +5376,11 @@
       <c r="J28" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="K28" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -5314,8 +5405,11 @@
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="K29" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -5340,8 +5434,11 @@
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K30" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -5372,8 +5469,11 @@
       <c r="J31" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K31" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -5404,8 +5504,11 @@
       <c r="J32" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="K32" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -5434,8 +5537,11 @@
       <c r="J33" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="K33" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -5464,8 +5570,11 @@
       <c r="J34" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="K34" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -5494,8 +5603,11 @@
       <c r="J35" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="K35" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -5524,8 +5636,11 @@
       <c r="J36" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K36" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -5554,8 +5669,11 @@
       <c r="J37" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K37" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -5586,8 +5704,11 @@
       <c r="J38" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K38" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -5618,8 +5739,11 @@
       <c r="J39" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K39" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -5650,8 +5774,11 @@
       <c r="J40" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="K40" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -5680,8 +5807,11 @@
       <c r="J41" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="K41" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -5710,8 +5840,11 @@
       <c r="J42" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K42" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -5742,8 +5875,11 @@
       <c r="J43" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K43" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -5774,8 +5910,11 @@
       <c r="J44" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="K44" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -5804,8 +5943,11 @@
       <c r="J45" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="K45" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -5830,8 +5972,11 @@
       <c r="J46" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="K46" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -5856,15 +6001,12 @@
       <c r="J47" s="3">
         <v>1</v>
       </c>
+      <c r="K47" s="5">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="F1:F47" xr:uid="{4F85BF50-88E6-40A2-A1FB-0D6A472C90B1}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="F1:F47" xr:uid="{4F85BF50-88E6-40A2-A1FB-0D6A472C90B1}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
@@ -5878,17 +6020,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226FB694-32D6-4278-9D50-7298BB867D7B}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.59765625" customWidth="1"/>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -5900,7 +6042,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>128</v>
       </c>
@@ -5912,7 +6054,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>129</v>
       </c>
@@ -5924,7 +6066,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>150</v>
       </c>
@@ -5936,7 +6078,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>151</v>
       </c>
@@ -5948,7 +6090,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>152</v>
       </c>
@@ -5960,7 +6102,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>153</v>
       </c>
@@ -5972,7 +6114,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>154</v>
       </c>
@@ -5984,7 +6126,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>155</v>
       </c>
@@ -5996,7 +6138,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>156</v>
       </c>
@@ -6008,7 +6150,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>157</v>
       </c>
@@ -6020,7 +6162,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>158</v>
       </c>
@@ -6032,7 +6174,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>159</v>
       </c>
@@ -6044,7 +6186,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>160</v>
       </c>
@@ -6056,7 +6198,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>161</v>
       </c>

--- a/2024软件工程数据统计/课堂考核及成绩记载表10.13.xlsx
+++ b/2024软件工程数据统计/课堂考核及成绩记载表10.13.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Git-2024软工数据统计\2024软件工程数据统计\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\2024软件工程数据统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224638A8-D393-4BA1-82F7-DA0B9BB6B8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE9255E-8031-4CDE-8DC3-574896F8A8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="项目评审表" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">作业情况!$F$1:$F$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">作业情况!$E$2:$E$47</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="180">
   <si>
     <t>浙大城市学院课堂考核及成绩记载表</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -741,6 +741,14 @@
       </rPr>
       <t>13</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组作业10.21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚92分钟提交</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -909,6 +917,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -932,9 +943,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1257,111 +1265,111 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.46484375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="13.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-    </row>
-    <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+    </row>
+    <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9"/>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="8"/>
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="9"/>
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="7" t="s">
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="7" t="s">
+      <c r="Q2" s="9"/>
+      <c r="R2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="8"/>
-    </row>
-    <row r="3" spans="1:19" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="S2" s="9"/>
+    </row>
+    <row r="3" spans="1:19" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="8"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="9"/>
       <c r="I3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="7" t="s">
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="7" t="s">
+      <c r="Q3" s="9"/>
+      <c r="R3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="8"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S3" s="9"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1420,7 +1428,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1451,7 +1459,7 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
     </row>
-    <row r="6" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1482,7 +1490,7 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1513,7 +1521,7 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1544,7 +1552,7 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -1575,7 +1583,7 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -1606,7 +1614,7 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -1637,7 +1645,7 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
     </row>
-    <row r="12" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -1670,7 +1678,7 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -1701,7 +1709,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
     </row>
-    <row r="14" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -1734,7 +1742,7 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
     </row>
-    <row r="15" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -1765,7 +1773,7 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -1798,7 +1806,7 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
     </row>
-    <row r="17" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -1829,7 +1837,7 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
     </row>
-    <row r="18" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -1862,7 +1870,7 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -1893,7 +1901,7 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
     </row>
-    <row r="20" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -1924,7 +1932,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -1955,7 +1963,7 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -1988,7 +1996,7 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
     </row>
-    <row r="23" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -2019,7 +2027,7 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
     </row>
-    <row r="24" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -2052,7 +2060,7 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
     </row>
-    <row r="25" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -2083,7 +2091,7 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
     </row>
-    <row r="26" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -2114,7 +2122,7 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
     </row>
-    <row r="27" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -2145,7 +2153,7 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
     </row>
-    <row r="28" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>24</v>
       </c>
@@ -2176,7 +2184,7 @@
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
     </row>
-    <row r="29" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>25</v>
       </c>
@@ -2207,7 +2215,7 @@
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
     </row>
-    <row r="30" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>26</v>
       </c>
@@ -2238,7 +2246,7 @@
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
     </row>
-    <row r="31" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>27</v>
       </c>
@@ -2269,7 +2277,7 @@
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
     </row>
-    <row r="32" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>28</v>
       </c>
@@ -2300,7 +2308,7 @@
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
     </row>
-    <row r="33" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>29</v>
       </c>
@@ -2333,7 +2341,7 @@
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
     </row>
-    <row r="34" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>30</v>
       </c>
@@ -2366,7 +2374,7 @@
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
     </row>
-    <row r="35" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>31</v>
       </c>
@@ -2397,7 +2405,7 @@
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
     </row>
-    <row r="36" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>32</v>
       </c>
@@ -2428,7 +2436,7 @@
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
     </row>
-    <row r="37" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <v>33</v>
       </c>
@@ -2459,7 +2467,7 @@
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
     </row>
-    <row r="38" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <v>34</v>
       </c>
@@ -2490,7 +2498,7 @@
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
     </row>
-    <row r="39" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <v>35</v>
       </c>
@@ -2525,7 +2533,7 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
     </row>
-    <row r="40" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <v>36</v>
       </c>
@@ -2558,7 +2566,7 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
     </row>
-    <row r="41" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <v>37</v>
       </c>
@@ -2591,7 +2599,7 @@
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
     </row>
-    <row r="42" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <v>38</v>
       </c>
@@ -2624,7 +2632,7 @@
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
     </row>
-    <row r="43" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <v>39</v>
       </c>
@@ -2655,7 +2663,7 @@
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
     </row>
-    <row r="44" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <v>40</v>
       </c>
@@ -2686,7 +2694,7 @@
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
     </row>
-    <row r="45" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <v>41</v>
       </c>
@@ -2719,7 +2727,7 @@
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <v>42</v>
       </c>
@@ -2752,7 +2760,7 @@
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <v>43</v>
       </c>
@@ -2783,7 +2791,7 @@
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A48" s="4">
         <v>44</v>
       </c>
@@ -2812,7 +2820,7 @@
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A49" s="4">
         <v>45</v>
       </c>
@@ -2869,39 +2877,39 @@
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -2972,7 +2980,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -3005,7 +3013,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -3038,7 +3046,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -3071,7 +3079,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -3104,7 +3112,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -3137,7 +3145,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -3170,7 +3178,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -3203,7 +3211,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -3238,7 +3246,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -3271,7 +3279,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -3306,7 +3314,7 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -3339,7 +3347,7 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -3374,7 +3382,7 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -3407,7 +3415,7 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -3442,7 +3450,7 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -3475,7 +3483,7 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -3508,7 +3516,7 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -3541,7 +3549,7 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -3576,7 +3584,7 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -3609,7 +3617,7 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -3644,7 +3652,7 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -3677,7 +3685,7 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -3710,7 +3718,7 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -3743,7 +3751,7 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -3776,7 +3784,7 @@
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -3809,7 +3817,7 @@
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -3842,7 +3850,7 @@
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -3875,7 +3883,7 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -3908,7 +3916,7 @@
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -3943,7 +3951,7 @@
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -3978,7 +3986,7 @@
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -4013,7 +4021,7 @@
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -4046,7 +4054,7 @@
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -4079,7 +4087,7 @@
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -4112,7 +4120,7 @@
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -4147,7 +4155,7 @@
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -4182,7 +4190,7 @@
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -4217,7 +4225,7 @@
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -4252,7 +4260,7 @@
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -4285,7 +4293,7 @@
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -4318,7 +4326,7 @@
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -4353,7 +4361,7 @@
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -4388,7 +4396,7 @@
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -4421,7 +4429,7 @@
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -4452,7 +4460,7 @@
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -4495,35 +4503,37 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F85BF50-88E6-40A2-A1FB-0D6A472C90B1}">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.875" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" customWidth="1"/>
+    <col min="7" max="7" width="9.59765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.86328125" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" customWidth="1"/>
+    <col min="10" max="10" width="12.3984375" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="13.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -4554,11 +4564,14 @@
       <c r="J2" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="7" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -4590,8 +4603,11 @@
       <c r="K3" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -4615,8 +4631,9 @@
       <c r="K4" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -4648,8 +4665,11 @@
       <c r="K5" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -4681,8 +4701,11 @@
       <c r="K6" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -4714,8 +4737,11 @@
       <c r="K7" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -4747,8 +4773,11 @@
       <c r="K8" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -4780,8 +4809,11 @@
       <c r="K9" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -4813,8 +4845,11 @@
       <c r="K10" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -4846,8 +4881,11 @@
       <c r="K11" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -4881,8 +4919,11 @@
       <c r="K12" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -4910,8 +4951,11 @@
       <c r="K13" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -4943,8 +4987,11 @@
       <c r="K14" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -4974,8 +5021,11 @@
       <c r="K15" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -5003,8 +5053,9 @@
       <c r="K16" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -5036,8 +5087,11 @@
       <c r="K17" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -5067,8 +5121,11 @@
       <c r="K18" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -5096,8 +5153,11 @@
       <c r="K19" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -5127,8 +5187,11 @@
       <c r="K20" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -5160,8 +5223,11 @@
       <c r="K21" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -5193,8 +5259,11 @@
       <c r="K22" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -5224,8 +5293,11 @@
       <c r="K23" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -5255,8 +5327,11 @@
       <c r="K24" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -5284,8 +5359,11 @@
       <c r="K25" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -5317,8 +5395,11 @@
       <c r="K26" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -5348,8 +5429,11 @@
       <c r="K27" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -5379,8 +5463,11 @@
       <c r="K28" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -5408,8 +5495,9 @@
       <c r="K29" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -5437,8 +5525,9 @@
       <c r="K30" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -5472,8 +5561,11 @@
       <c r="K31" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -5507,8 +5599,11 @@
       <c r="K32" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -5540,8 +5635,11 @@
       <c r="K33" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -5573,8 +5671,11 @@
       <c r="K34" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -5606,8 +5707,11 @@
       <c r="K35" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -5639,8 +5743,11 @@
       <c r="K36" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -5672,8 +5779,11 @@
       <c r="K37" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -5707,8 +5817,11 @@
       <c r="K38" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -5742,8 +5855,11 @@
       <c r="K39" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -5777,8 +5893,11 @@
       <c r="K40" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -5810,8 +5929,11 @@
       <c r="K41" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -5843,8 +5965,11 @@
       <c r="K42" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -5878,8 +6003,11 @@
       <c r="K43" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -5913,8 +6041,11 @@
       <c r="K44" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -5946,8 +6077,11 @@
       <c r="K45" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -5975,8 +6109,11 @@
       <c r="K46" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -6004,9 +6141,15 @@
       <c r="K47" s="5">
         <v>1</v>
       </c>
+      <c r="L47" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L48" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="F1:F47" xr:uid="{4F85BF50-88E6-40A2-A1FB-0D6A472C90B1}"/>
+  <autoFilter ref="E2:E47" xr:uid="{4F85BF50-88E6-40A2-A1FB-0D6A472C90B1}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
@@ -6024,13 +6167,13 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="18.375" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -6042,7 +6185,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>128</v>
       </c>
@@ -6054,7 +6197,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>129</v>
       </c>
@@ -6066,7 +6209,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>150</v>
       </c>
@@ -6078,7 +6221,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>151</v>
       </c>
@@ -6090,7 +6233,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>152</v>
       </c>
@@ -6102,7 +6245,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>153</v>
       </c>
@@ -6114,7 +6257,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>154</v>
       </c>
@@ -6126,7 +6269,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>155</v>
       </c>
@@ -6138,7 +6281,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>156</v>
       </c>
@@ -6150,7 +6293,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>157</v>
       </c>
@@ -6162,7 +6305,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>158</v>
       </c>
@@ -6174,7 +6317,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>159</v>
       </c>
@@ -6186,7 +6329,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>160</v>
       </c>
@@ -6198,7 +6341,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>161</v>
       </c>

--- a/2024软件工程数据统计/课堂考核及成绩记载表10.13.xlsx
+++ b/2024软件工程数据统计/课堂考核及成绩记载表10.13.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\2024软件工程数据统计\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Git-2024软工数据统计\2024软件工程数据统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE9255E-8031-4CDE-8DC3-574896F8A8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA37FB86-F339-436B-A654-20CC850D0785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="183">
   <si>
     <t>浙大城市学院课堂考核及成绩记载表</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -539,42 +539,6 @@
   <si>
     <t>方苏麒</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>G03</t>
-  </si>
-  <si>
-    <t>G04</t>
-  </si>
-  <si>
-    <t>G05</t>
-  </si>
-  <si>
-    <t>G06</t>
-  </si>
-  <si>
-    <t>G07</t>
-  </si>
-  <si>
-    <t>G08</t>
-  </si>
-  <si>
-    <t>G09</t>
-  </si>
-  <si>
-    <t>G10</t>
-  </si>
-  <si>
-    <t>G11</t>
-  </si>
-  <si>
-    <t>G12</t>
-  </si>
-  <si>
-    <t>G13</t>
-  </si>
-  <si>
-    <t>G14</t>
   </si>
   <si>
     <t>梅怡钿</t>
@@ -749,6 +713,220 @@
   </si>
   <si>
     <t>晚92分钟提交</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（每人加一分）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>G06（学校二手书）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>G12（旅游推荐）</t>
+  </si>
+  <si>
+    <r>
+      <t>G05（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>竞赛编排）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>G03（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>智慧体测）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G02（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>校园二手书）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G09（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>饮食管理）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G07（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>简单心理咨询平台）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G08（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>校园二手交易小程序）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G10（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>女生校园交易）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G13（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>校园二手书交易）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G01（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>校园兼职平台）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(网络安全社团网站）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G04（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>校园跑腿）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G11（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>二手交易平台）</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1261,18 +1439,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C34133-ADDC-4865-A8A7-599D46B0AE85}">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="13.46484375" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1295,7 +1473,7 @@
       <c r="R1" s="11"/>
       <c r="S1" s="11"/>
     </row>
-    <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -1332,7 +1510,7 @@
       </c>
       <c r="S2" s="9"/>
     </row>
-    <row r="3" spans="1:19" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" ht="27.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -1369,7 +1547,7 @@
       </c>
       <c r="S3" s="9"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1428,7 +1606,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1459,7 +1637,7 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
     </row>
-    <row r="6" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1473,7 +1651,7 @@
         <v>40</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1490,7 +1668,7 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1521,7 +1699,7 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1552,7 +1730,7 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -1583,7 +1761,7 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -1614,7 +1792,7 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -1645,7 +1823,7 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
     </row>
-    <row r="12" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -1678,7 +1856,7 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -1709,7 +1887,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
     </row>
-    <row r="14" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -1742,7 +1920,7 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
     </row>
-    <row r="15" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -1773,7 +1951,7 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -1806,7 +1984,7 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
     </row>
-    <row r="17" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -1837,7 +2015,7 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
     </row>
-    <row r="18" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -1870,7 +2048,7 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -1901,7 +2079,7 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
     </row>
-    <row r="20" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -1932,7 +2110,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -1963,7 +2141,7 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -1996,7 +2174,7 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
     </row>
-    <row r="23" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -2027,7 +2205,7 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
     </row>
-    <row r="24" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -2060,7 +2238,7 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
     </row>
-    <row r="25" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -2091,7 +2269,7 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
     </row>
-    <row r="26" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -2122,7 +2300,7 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
     </row>
-    <row r="27" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -2153,7 +2331,7 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
     </row>
-    <row r="28" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>24</v>
       </c>
@@ -2184,7 +2362,7 @@
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
     </row>
-    <row r="29" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>25</v>
       </c>
@@ -2215,7 +2393,7 @@
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
     </row>
-    <row r="30" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>26</v>
       </c>
@@ -2246,7 +2424,7 @@
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
     </row>
-    <row r="31" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>27</v>
       </c>
@@ -2277,7 +2455,7 @@
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
     </row>
-    <row r="32" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>28</v>
       </c>
@@ -2308,7 +2486,7 @@
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
     </row>
-    <row r="33" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>29</v>
       </c>
@@ -2341,7 +2519,7 @@
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
     </row>
-    <row r="34" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>30</v>
       </c>
@@ -2374,7 +2552,7 @@
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
     </row>
-    <row r="35" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>31</v>
       </c>
@@ -2405,7 +2583,7 @@
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
     </row>
-    <row r="36" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>32</v>
       </c>
@@ -2436,7 +2614,7 @@
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
     </row>
-    <row r="37" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>33</v>
       </c>
@@ -2467,7 +2645,7 @@
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
     </row>
-    <row r="38" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>34</v>
       </c>
@@ -2498,7 +2676,7 @@
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
     </row>
-    <row r="39" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>35</v>
       </c>
@@ -2520,7 +2698,7 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="5" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -2533,7 +2711,7 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
     </row>
-    <row r="40" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>36</v>
       </c>
@@ -2566,7 +2744,7 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
     </row>
-    <row r="41" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>37</v>
       </c>
@@ -2599,7 +2777,7 @@
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
     </row>
-    <row r="42" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>38</v>
       </c>
@@ -2632,7 +2810,7 @@
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
     </row>
-    <row r="43" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>39</v>
       </c>
@@ -2663,7 +2841,7 @@
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
     </row>
-    <row r="44" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>40</v>
       </c>
@@ -2677,7 +2855,7 @@
         <v>46</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -2694,7 +2872,7 @@
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
     </row>
-    <row r="45" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>41</v>
       </c>
@@ -2727,7 +2905,7 @@
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>42</v>
       </c>
@@ -2743,9 +2921,7 @@
       <c r="E46" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F46" s="3">
-        <v>1</v>
-      </c>
+      <c r="F46" s="3"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -2760,7 +2936,7 @@
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>43</v>
       </c>
@@ -2791,7 +2967,7 @@
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>44</v>
       </c>
@@ -2799,13 +2975,15 @@
         <v>32201039</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="F48" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1</v>
+      </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -2820,7 +2998,7 @@
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>45</v>
       </c>
@@ -2828,11 +3006,11 @@
         <v>32201062</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="5" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -2877,12 +3055,12 @@
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.3984375" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>142</v>
       </c>
@@ -2909,7 +3087,7 @@
       <c r="V1" s="15"/>
       <c r="W1" s="15"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -2980,7 +3158,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -3013,7 +3191,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -3027,7 +3205,7 @@
         <v>40</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="2"/>
@@ -3046,7 +3224,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -3079,7 +3257,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -3112,7 +3290,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -3145,7 +3323,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -3178,7 +3356,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -3211,7 +3389,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -3246,7 +3424,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -3279,7 +3457,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -3314,7 +3492,7 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -3347,7 +3525,7 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -3382,7 +3560,7 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -3415,7 +3593,7 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -3450,7 +3628,7 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -3483,7 +3661,7 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -3516,7 +3694,7 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -3549,7 +3727,7 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -3584,7 +3762,7 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -3617,7 +3795,7 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -3652,7 +3830,7 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -3685,7 +3863,7 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -3718,7 +3896,7 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -3751,7 +3929,7 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -3784,7 +3962,7 @@
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -3817,7 +3995,7 @@
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -3850,7 +4028,7 @@
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -3883,7 +4061,7 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -3916,7 +4094,7 @@
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -3951,7 +4129,7 @@
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -3986,7 +4164,7 @@
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -4008,7 +4186,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -4021,7 +4199,7 @@
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -4054,7 +4232,7 @@
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -4087,7 +4265,7 @@
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -4120,7 +4298,7 @@
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -4155,7 +4333,7 @@
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -4190,7 +4368,7 @@
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -4225,7 +4403,7 @@
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -4260,7 +4438,7 @@
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -4293,7 +4471,7 @@
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -4307,7 +4485,7 @@
         <v>46</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="2"/>
@@ -4326,7 +4504,7 @@
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -4361,7 +4539,7 @@
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -4396,7 +4574,7 @@
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -4429,7 +4607,7 @@
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -4437,7 +4615,7 @@
         <v>32201039</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
@@ -4460,7 +4638,7 @@
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -4468,7 +4646,7 @@
         <v>32201062</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
@@ -4505,23 +4683,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F85BF50-88E6-40A2-A1FB-0D6A472C90B1}">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" customWidth="1"/>
-    <col min="7" max="7" width="9.59765625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.86328125" customWidth="1"/>
-    <col min="9" max="9" width="12.59765625" customWidth="1"/>
-    <col min="10" max="10" width="12.3984375" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>143</v>
       </c>
@@ -4533,7 +4711,7 @@
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -4559,19 +4737,19 @@
         <v>145</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -4607,7 +4785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -4621,7 +4799,7 @@
         <v>40</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -4633,7 +4811,7 @@
       </c>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -4669,7 +4847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -4705,7 +4883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -4726,7 +4904,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="I7" s="3">
         <v>1</v>
@@ -4738,10 +4916,10 @@
         <v>1</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -4777,7 +4955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -4813,7 +4991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -4849,7 +5027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -4870,7 +5048,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="I11" s="3">
         <v>1</v>
@@ -4882,10 +5060,10 @@
         <v>1</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -4923,7 +5101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -4955,7 +5133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -4975,7 +5153,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="H14" s="3">
         <v>1</v>
@@ -4991,7 +5169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -5025,7 +5203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -5055,7 +5233,7 @@
       </c>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -5091,7 +5269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -5125,7 +5303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -5157,7 +5335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -5191,7 +5369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -5227,7 +5405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -5263,7 +5441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -5297,7 +5475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -5331,7 +5509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -5363,7 +5541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -5399,7 +5577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -5433,7 +5611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -5467,7 +5645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -5497,7 +5675,7 @@
       </c>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -5527,7 +5705,7 @@
       </c>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -5565,7 +5743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -5603,7 +5781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -5639,7 +5817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -5675,7 +5853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -5711,7 +5889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -5747,7 +5925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -5783,7 +5961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -5821,7 +5999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -5844,7 +6022,7 @@
         <v>1</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="I39" s="3">
         <v>1</v>
@@ -5856,10 +6034,10 @@
         <v>1</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -5897,7 +6075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -5933,7 +6111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -5969,7 +6147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -6007,7 +6185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -6023,9 +6201,7 @@
       <c r="E44" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F44" s="3">
-        <v>1</v>
-      </c>
+      <c r="F44" s="3"/>
       <c r="G44" s="3">
         <v>1</v>
       </c>
@@ -6045,7 +6221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -6063,7 +6239,7 @@
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="5" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="H45" s="3">
         <v>1</v>
@@ -6081,7 +6257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -6089,13 +6265,15 @@
         <v>32201039</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F46" s="2"/>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
       <c r="G46" s="2"/>
       <c r="H46" s="3">
         <v>1</v>
@@ -6113,7 +6291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -6121,7 +6299,7 @@
         <v>32201062</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
@@ -6145,7 +6323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L48" s="1"/>
     </row>
   </sheetData>
@@ -6163,31 +6341,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226FB694-32D6-4278-9D50-7298BB867D7B}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.3984375" customWidth="1"/>
-    <col min="3" max="3" width="10.59765625" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>128</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>179</v>
       </c>
       <c r="B2" s="3">
         <v>58.83</v>
@@ -6197,21 +6376,23 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>129</v>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="B3" s="3">
         <v>51.36</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>150</v>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="B4" s="3">
         <v>63.73</v>
@@ -6221,9 +6402,9 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>151</v>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>181</v>
       </c>
       <c r="B5" s="3">
         <v>56.92</v>
@@ -6233,9 +6414,9 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>152</v>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="B6" s="3">
         <v>58</v>
@@ -6245,9 +6426,9 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="B7" s="3">
         <v>61.5</v>
@@ -6257,9 +6438,9 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
-        <v>154</v>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>175</v>
       </c>
       <c r="B8" s="3">
         <v>51.78</v>
@@ -6269,9 +6450,9 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
-        <v>155</v>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>176</v>
       </c>
       <c r="B9" s="3">
         <v>56.7</v>
@@ -6281,9 +6462,9 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
-        <v>156</v>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>174</v>
       </c>
       <c r="B10" s="3">
         <v>53.71</v>
@@ -6293,9 +6474,9 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
-        <v>157</v>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="B11" s="3">
         <v>52.57</v>
@@ -6305,9 +6486,9 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
-        <v>158</v>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="B12" s="3">
         <v>59.54</v>
@@ -6317,9 +6498,9 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="B13" s="3">
         <v>47.92</v>
@@ -6329,9 +6510,9 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
-        <v>160</v>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>178</v>
       </c>
       <c r="B14" s="3">
         <v>63.44</v>
@@ -6341,9 +6522,9 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
-        <v>161</v>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>180</v>
       </c>
       <c r="B15" s="3">
         <v>54.73</v>
@@ -6356,5 +6537,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/2024软件工程数据统计/课堂考核及成绩记载表10.13.xlsx
+++ b/2024软件工程数据统计/课堂考核及成绩记载表10.13.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Git-2024软工数据统计\2024软件工程数据统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA37FB86-F339-436B-A654-20CC850D0785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E10AF1-7C06-4574-BAD5-D97AA77A7DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="184">
   <si>
     <t>浙大城市学院课堂考核及成绩记载表</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -926,6 +926,23 @@
         <scheme val="minor"/>
       </rPr>
       <t>二手交易平台）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>小组作业10.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1443,14 +1460,14 @@
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1473,7 +1490,7 @@
       <c r="R1" s="11"/>
       <c r="S1" s="11"/>
     </row>
-    <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -1510,7 +1527,7 @@
       </c>
       <c r="S2" s="9"/>
     </row>
-    <row r="3" spans="1:19" ht="27.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -1547,7 +1564,7 @@
       </c>
       <c r="S3" s="9"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1606,7 +1623,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1637,7 +1654,7 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
     </row>
-    <row r="6" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1668,7 +1685,7 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1699,7 +1716,7 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1730,7 +1747,7 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -1761,7 +1778,7 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -1792,7 +1809,7 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -1823,7 +1840,7 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
     </row>
-    <row r="12" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -1856,7 +1873,7 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -1887,7 +1904,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
     </row>
-    <row r="14" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -1920,7 +1937,7 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
     </row>
-    <row r="15" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -1951,7 +1968,7 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -1984,7 +2001,7 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
     </row>
-    <row r="17" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -2015,7 +2032,7 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
     </row>
-    <row r="18" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -2048,7 +2065,7 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -2079,7 +2096,7 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
     </row>
-    <row r="20" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -2110,7 +2127,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -2141,7 +2158,7 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -2174,7 +2191,7 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
     </row>
-    <row r="23" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -2205,7 +2222,7 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
     </row>
-    <row r="24" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -2238,7 +2255,7 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
     </row>
-    <row r="25" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -2269,7 +2286,7 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
     </row>
-    <row r="26" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -2300,7 +2317,7 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
     </row>
-    <row r="27" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -2331,7 +2348,7 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
     </row>
-    <row r="28" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>24</v>
       </c>
@@ -2362,7 +2379,7 @@
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
     </row>
-    <row r="29" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>25</v>
       </c>
@@ -2393,7 +2410,7 @@
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
     </row>
-    <row r="30" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>26</v>
       </c>
@@ -2424,7 +2441,7 @@
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
     </row>
-    <row r="31" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>27</v>
       </c>
@@ -2455,7 +2472,7 @@
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
     </row>
-    <row r="32" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>28</v>
       </c>
@@ -2486,7 +2503,7 @@
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
     </row>
-    <row r="33" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>29</v>
       </c>
@@ -2519,7 +2536,7 @@
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
     </row>
-    <row r="34" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>30</v>
       </c>
@@ -2552,7 +2569,7 @@
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
     </row>
-    <row r="35" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>31</v>
       </c>
@@ -2583,7 +2600,7 @@
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
     </row>
-    <row r="36" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>32</v>
       </c>
@@ -2614,7 +2631,7 @@
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
     </row>
-    <row r="37" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>33</v>
       </c>
@@ -2645,7 +2662,7 @@
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
     </row>
-    <row r="38" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>34</v>
       </c>
@@ -2676,7 +2693,7 @@
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
     </row>
-    <row r="39" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>35</v>
       </c>
@@ -2711,7 +2728,7 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
     </row>
-    <row r="40" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>36</v>
       </c>
@@ -2744,7 +2761,7 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
     </row>
-    <row r="41" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>37</v>
       </c>
@@ -2777,7 +2794,7 @@
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
     </row>
-    <row r="42" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>38</v>
       </c>
@@ -2810,7 +2827,7 @@
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
     </row>
-    <row r="43" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>39</v>
       </c>
@@ -2841,7 +2858,7 @@
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
     </row>
-    <row r="44" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>40</v>
       </c>
@@ -2872,7 +2889,7 @@
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
     </row>
-    <row r="45" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>41</v>
       </c>
@@ -2905,7 +2922,7 @@
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>42</v>
       </c>
@@ -2936,7 +2953,7 @@
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>43</v>
       </c>
@@ -2967,7 +2984,7 @@
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>44</v>
       </c>
@@ -2998,7 +3015,7 @@
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>45</v>
       </c>
@@ -3055,12 +3072,12 @@
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>142</v>
       </c>
@@ -3087,7 +3104,7 @@
       <c r="V1" s="15"/>
       <c r="W1" s="15"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -3158,7 +3175,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -3191,7 +3208,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -3224,7 +3241,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -3257,7 +3274,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -3290,7 +3307,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -3323,7 +3340,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -3356,7 +3373,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -3389,7 +3406,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -3424,7 +3441,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -3457,7 +3474,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -3492,7 +3509,7 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -3525,7 +3542,7 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -3560,7 +3577,7 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -3593,7 +3610,7 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -3628,7 +3645,7 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -3661,7 +3678,7 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -3694,7 +3711,7 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -3727,7 +3744,7 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -3762,7 +3779,7 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -3795,7 +3812,7 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -3830,7 +3847,7 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -3863,7 +3880,7 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -3896,7 +3913,7 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -3929,7 +3946,7 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -3962,7 +3979,7 @@
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -3995,7 +4012,7 @@
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -4028,7 +4045,7 @@
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -4061,7 +4078,7 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -4094,7 +4111,7 @@
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -4129,7 +4146,7 @@
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -4164,7 +4181,7 @@
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -4199,7 +4216,7 @@
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -4232,7 +4249,7 @@
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -4265,7 +4282,7 @@
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -4298,7 +4315,7 @@
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -4333,7 +4350,7 @@
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -4368,7 +4385,7 @@
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -4403,7 +4420,7 @@
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -4438,7 +4455,7 @@
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -4471,7 +4488,7 @@
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -4504,7 +4521,7 @@
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -4539,7 +4556,7 @@
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -4574,7 +4591,7 @@
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -4607,7 +4624,7 @@
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -4638,7 +4655,7 @@
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -4681,25 +4698,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F85BF50-88E6-40A2-A1FB-0D6A472C90B1}">
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.875" customWidth="1"/>
+    <col min="9" max="10" width="12.5" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>143</v>
       </c>
@@ -4711,7 +4727,7 @@
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -4748,8 +4764,11 @@
       <c r="L2" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -4784,8 +4803,11 @@
       <c r="L3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -4810,8 +4832,9 @@
         <v>1</v>
       </c>
       <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -4846,8 +4869,11 @@
       <c r="L5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -4882,8 +4908,11 @@
       <c r="L6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -4918,8 +4947,11 @@
       <c r="L7" s="3" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -4954,8 +4986,11 @@
       <c r="L8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -4990,8 +5025,11 @@
       <c r="L9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -5026,8 +5064,11 @@
       <c r="L10" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -5062,8 +5103,11 @@
       <c r="L11" s="3" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -5100,8 +5144,11 @@
       <c r="L12" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -5132,8 +5179,11 @@
       <c r="L13" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -5168,8 +5218,11 @@
       <c r="L14" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -5202,8 +5255,11 @@
       <c r="L15" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -5232,8 +5288,9 @@
         <v>1</v>
       </c>
       <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -5268,8 +5325,11 @@
       <c r="L17" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -5302,8 +5362,11 @@
       <c r="L18" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -5334,8 +5397,11 @@
       <c r="L19" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -5368,8 +5434,11 @@
       <c r="L20" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -5404,8 +5473,9 @@
       <c r="L21" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -5440,8 +5510,11 @@
       <c r="L22" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -5474,8 +5547,11 @@
       <c r="L23" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -5508,8 +5584,11 @@
       <c r="L24" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -5540,8 +5619,11 @@
       <c r="L25" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -5576,8 +5658,11 @@
       <c r="L26" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -5610,8 +5695,11 @@
       <c r="L27" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -5644,8 +5732,11 @@
       <c r="L28" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -5674,8 +5765,9 @@
         <v>1</v>
       </c>
       <c r="L29" s="2"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -5704,8 +5796,9 @@
         <v>1</v>
       </c>
       <c r="L30" s="2"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -5742,8 +5835,11 @@
       <c r="L31" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -5780,8 +5876,11 @@
       <c r="L32" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -5816,8 +5915,11 @@
       <c r="L33" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -5852,8 +5954,11 @@
       <c r="L34" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -5888,8 +5993,11 @@
       <c r="L35" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -5924,8 +6032,11 @@
       <c r="L36" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -5960,8 +6071,11 @@
       <c r="L37" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -5998,8 +6112,9 @@
       <c r="L38" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38" s="3"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -6036,8 +6151,11 @@
       <c r="L39" s="3" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -6074,8 +6192,11 @@
       <c r="L40" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -6110,8 +6231,9 @@
       <c r="L41" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -6146,8 +6268,11 @@
       <c r="L42" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -6184,8 +6309,11 @@
       <c r="L43" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M43" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -6220,8 +6348,11 @@
       <c r="L44" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -6256,8 +6387,11 @@
       <c r="L45" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -6290,8 +6424,11 @@
       <c r="L46" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -6322,8 +6459,11 @@
       <c r="L47" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M47" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L48" s="1"/>
     </row>
   </sheetData>
@@ -6341,18 +6481,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226FB694-32D6-4278-9D50-7298BB867D7B}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -6364,7 +6504,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>179</v>
       </c>
@@ -6376,7 +6516,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>173</v>
       </c>
@@ -6390,7 +6530,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>172</v>
       </c>
@@ -6402,7 +6542,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>181</v>
       </c>
@@ -6414,7 +6554,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>171</v>
       </c>
@@ -6426,7 +6566,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>169</v>
       </c>
@@ -6438,7 +6578,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>175</v>
       </c>
@@ -6450,7 +6590,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>176</v>
       </c>
@@ -6462,7 +6602,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>174</v>
       </c>
@@ -6474,7 +6614,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>177</v>
       </c>
@@ -6486,7 +6626,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>182</v>
       </c>
@@ -6498,7 +6638,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>170</v>
       </c>
@@ -6510,7 +6650,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>178</v>
       </c>
@@ -6522,7 +6662,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>180</v>
       </c>
